--- a/biology/Zoologie/Duttaphrynus_valhallae/Duttaphrynus_valhallae.xlsx
+++ b/biology/Zoologie/Duttaphrynus_valhallae/Duttaphrynus_valhallae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Duttaphrynus valhallae  est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Duttaphrynus valhallae  est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Weh à la pointe Nord de Sumatra en Indonésie[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Weh à la pointe Nord de Sumatra en Indonésie,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Duttaphrynus valhallae[3], une femelle mesure 82 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Duttaphrynus valhallae, une femelle mesure 82 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique lui a été donnée en référence au nom du bateau le Valhalla sur lequel Edmund Meade-Waldo naviguait quand il a obtenu la série type[Quoi ?].
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Meade-Waldo, 1909 "1908" : Description of a new species of toad from Sumatra. Proceedings of the Zoological Society of London, vol. 1908, p. 786-788 (texte intégral).</t>
         </is>
